--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/20/seed5/result_data_KNN.xlsx
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.396</v>
+        <v>12.907</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>13.396</v>
+        <v>12.829</v>
       </c>
     </row>
     <row r="13">
@@ -695,7 +695,7 @@
         <v>-6.43</v>
       </c>
       <c r="E15" t="n">
-        <v>12.106</v>
+        <v>12.939</v>
       </c>
     </row>
     <row r="16">
